--- a/Andamento/Notas Turma.xlsx
+++ b/Andamento/Notas Turma.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icaro\Documents\GitHub\glauco-dev.github.io\Andamento\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8416869C-9E17-46FE-A3E3-039FE33A90A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3944DB04-95F1-4F25-8B95-FBBFB770F052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{D4673028-9245-4B43-90C7-CAFE5C03F0CA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{D4673028-9245-4B43-90C7-CAFE5C03F0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="22adm03" sheetId="3" r:id="rId1"/>
@@ -20,9 +20,10 @@
     <sheet name="23adm07" sheetId="2" r:id="rId5"/>
     <sheet name="23adm11" sheetId="6" r:id="rId6"/>
     <sheet name="23adm12" sheetId="7" r:id="rId7"/>
-    <sheet name="24adm02" sheetId="8" r:id="rId8"/>
-    <sheet name="24adm04" sheetId="9" r:id="rId9"/>
-    <sheet name="23adm02" sheetId="10" r:id="rId10"/>
+    <sheet name="23adm05" sheetId="11" r:id="rId8"/>
+    <sheet name="24adm02" sheetId="8" r:id="rId9"/>
+    <sheet name="24adm04" sheetId="9" r:id="rId10"/>
+    <sheet name="23adm02" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
   <si>
     <t>Alunos</t>
   </si>
@@ -76,6 +77,12 @@
   </si>
   <si>
     <t>Nota em Prova</t>
+  </si>
+  <si>
+    <t>Eduarda</t>
+  </si>
+  <si>
+    <t>Ant</t>
   </si>
 </sst>
 </file>
@@ -1368,6 +1375,137 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616BAC8B-4EF3-4A7D-9182-0E00180D99FE}">
+  <dimension ref="E2:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B02C4C-1D8C-471E-A3B2-4AE735798602}">
   <dimension ref="D2:D11"/>
   <sheetViews>
@@ -2168,7 +2306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F03E032-DFD8-43F6-AB2D-98492615717A}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+    <sheetView zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2515,6 +2653,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF9FFEE0-BFA4-4503-8661-3EA37E091DF2}">
+  <dimension ref="D2:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6FB710A-AC5C-4F92-AD80-98B957B29815}">
   <dimension ref="E2:E57"/>
   <sheetViews>
@@ -2808,135 +2974,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616BAC8B-4EF3-4A7D-9182-0E00180D99FE}">
-  <dimension ref="E2:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E3">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E11">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E14">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E16">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E18">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24">
-        <v>1.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>